--- a/Documents/outputs.xlsx
+++ b/Documents/outputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="55">
   <si>
     <t>Acceleration command</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Announce station/Stop</t>
-  </si>
-  <si>
-    <t>velocity</t>
   </si>
   <si>
     <t>Train</t>
@@ -361,7 +358,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,8 +426,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,8 +503,11 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -539,6 +541,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -572,6 +575,7 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -903,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -921,76 +925,76 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1">
       <c r="B3" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="I3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="K3" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>0</v>
@@ -999,27 +1003,27 @@
         <v>0</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>1</v>
@@ -1028,27 +1032,27 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
@@ -1057,15 +1061,15 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>3</v>
@@ -1074,21 +1078,21 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -1097,21 +1101,21 @@
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -1120,405 +1124,435 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="E10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="E12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="E13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="H20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="J20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="G22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
-      <c r="E38" s="2" t="s">
+    <row r="39" spans="3:6">
+      <c r="E39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="E39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/outputs.xlsx
+++ b/Documents/outputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,6 +488,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,9 +505,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -924,26 +924,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="2:12" s="12" customFormat="1">
       <c r="B3" s="16" t="s">
@@ -1289,54 +1289,54 @@
       </c>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="20" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
